--- a/September'21/07.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/07.09.2021/Daily Sales Info Sep'21.xlsx
@@ -41,7 +41,6 @@
     <sheet name="Total" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -141,7 +140,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -150,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Milton 19 sim</t>
@@ -165,7 +164,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -174,7 +173,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Milton dd 3</t>
@@ -199,7 +198,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -208,7 +207,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Shawon BP Sale Sim 10</t>
@@ -223,7 +222,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Windows User:</t>
         </r>
@@ -232,7 +231,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Shawon BP Sale Kit 2</t>
@@ -418,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,19 +502,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -59600,8 +59586,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
